--- a/LinkedIn/Excel_Data_Analysis/Exercise Files/Chapter02/RunningAverage.xlsx
+++ b/LinkedIn/Excel_Data_Analysis/Exercise Files/Chapter02/RunningAverage.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Writing\Lynda\Data Analysis Fundamentals October 2018 Refresh\Exercise Files\Chapter02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rtalebiz\Desktop\Jupyter\Examples\LinkedIn\Excel_Data_Analysis\Exercise Files\Chapter02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBBE41A9-644A-4D69-99A9-CEA1348A4175}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD51A041-1BDC-488F-833E-7A82A0034E3B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13335" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,6 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -133,12 +134,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -423,7 +425,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,6 +457,10 @@
       <c r="B2" s="2">
         <v>4969</v>
       </c>
+      <c r="C2" s="3">
+        <f>AVERAGE($B$2:B2)</f>
+        <v>4969</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -463,6 +469,10 @@
       <c r="B3" s="2">
         <v>5705</v>
       </c>
+      <c r="C3" s="3">
+        <f>AVERAGE($B$2:B3)</f>
+        <v>5337</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -471,6 +481,14 @@
       <c r="B4" s="2">
         <v>9721</v>
       </c>
+      <c r="C4" s="3">
+        <f>AVERAGE($B$2:B4)</f>
+        <v>6798.333333333333</v>
+      </c>
+      <c r="D4" s="3">
+        <f>AVERAGE(B2:B4)</f>
+        <v>6798.333333333333</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -479,6 +497,14 @@
       <c r="B5" s="2">
         <v>6481</v>
       </c>
+      <c r="C5" s="3">
+        <f>AVERAGE($B$2:B5)</f>
+        <v>6719</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" ref="D5:D13" si="0">AVERAGE(B3:B5)</f>
+        <v>7302.333333333333</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -487,6 +513,14 @@
       <c r="B6" s="2">
         <v>5311</v>
       </c>
+      <c r="C6" s="3">
+        <f>AVERAGE($B$2:B6)</f>
+        <v>6437.4</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" si="0"/>
+        <v>7171</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -495,6 +529,14 @@
       <c r="B7" s="2">
         <v>6987</v>
       </c>
+      <c r="C7" s="3">
+        <f>AVERAGE($B$2:B7)</f>
+        <v>6529</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" si="0"/>
+        <v>6259.666666666667</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -503,6 +545,14 @@
       <c r="B8" s="2">
         <v>8435</v>
       </c>
+      <c r="C8" s="3">
+        <f>AVERAGE($B$2:B8)</f>
+        <v>6801.2857142857147</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="0"/>
+        <v>6911</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -511,6 +561,14 @@
       <c r="B9" s="2">
         <v>3443</v>
       </c>
+      <c r="C9" s="3">
+        <f>AVERAGE($B$2:B9)</f>
+        <v>6381.5</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="0"/>
+        <v>6288.333333333333</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -519,6 +577,14 @@
       <c r="B10" s="2">
         <v>3859</v>
       </c>
+      <c r="C10" s="3">
+        <f>AVERAGE($B$2:B10)</f>
+        <v>6101.2222222222226</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="0"/>
+        <v>5245.666666666667</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -527,6 +593,14 @@
       <c r="B11" s="2">
         <v>4835</v>
       </c>
+      <c r="C11" s="3">
+        <f>AVERAGE($B$2:B11)</f>
+        <v>5974.6</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="0"/>
+        <v>4045.6666666666665</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -535,6 +609,14 @@
       <c r="B12" s="2">
         <v>9139</v>
       </c>
+      <c r="C12" s="3">
+        <f>AVERAGE($B$2:B12)</f>
+        <v>6262.272727272727</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" si="0"/>
+        <v>5944.333333333333</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -542,6 +624,14 @@
       </c>
       <c r="B13" s="2">
         <v>9928</v>
+      </c>
+      <c r="C13" s="3">
+        <f>AVERAGE($B$2:B13)</f>
+        <v>6567.75</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="0"/>
+        <v>7967.333333333333</v>
       </c>
     </row>
   </sheetData>
